--- a/System Requirements/Use Case Scenarios.xlsx
+++ b/System Requirements/Use Case Scenarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="196">
   <si>
     <t>Use Case Title</t>
   </si>
@@ -344,12 +344,6 @@
     <t>4.1 displays options of session (i.e. account types, such as personal, employee or business account)</t>
   </si>
   <si>
-    <t>User chooses personal session or restaurant session</t>
-  </si>
-  <si>
-    <t>5.1 creates new session of the respective type</t>
-  </si>
-  <si>
     <t>user doesn't change any of the preset settings so keep it as is</t>
   </si>
   <si>
@@ -404,12 +398,6 @@
     <t>5.1 System saves the information in storage</t>
   </si>
   <si>
-    <t>Create invites to employees</t>
-  </si>
-  <si>
-    <t>6.1 creates url link to employees</t>
-  </si>
-  <si>
     <t>User hits cancel</t>
   </si>
   <si>
@@ -459,6 +447,9 @@
   </si>
   <si>
     <t>5.1 System saves the information in buisness storage</t>
+  </si>
+  <si>
+    <t>5.2 Notification sent to stake holders</t>
   </si>
   <si>
     <t>System takes them to app home</t>
@@ -1062,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -1086,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
@@ -1126,10 +1117,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -1137,17 +1128,17 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -1155,10 +1146,10 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -1166,10 +1157,10 @@
         <v>4.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1177,10 +1168,15 @@
         <v>5.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -1208,10 +1204,10 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
@@ -1219,10 +1215,10 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1230,10 +1226,10 @@
         <v>2.1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -1298,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -1306,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
@@ -1325,10 +1321,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -1336,10 +1332,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -1347,10 +1343,10 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1358,10 +1354,10 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -1389,10 +1385,10 @@
         <v>1.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -1400,10 +1396,10 @@
         <v>2.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -1439,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -1455,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1468,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1476,7 +1472,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -1495,10 +1491,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -1506,7 +1502,7 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1515,7 +1511,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1524,10 +1520,10 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1535,10 +1531,10 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -1566,10 +1562,10 @@
         <v>2.1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -1577,10 +1573,10 @@
         <v>2.2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -1588,10 +1584,10 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1599,10 +1595,10 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -1638,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -1654,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -1670,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1696,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
@@ -1708,10 +1704,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1715,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1728,7 +1724,7 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -1737,10 +1733,10 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
@@ -1748,16 +1744,16 @@
         <v>6.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
@@ -1814,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
@@ -1830,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -1838,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -1851,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -1859,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
@@ -1878,10 +1874,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -1889,10 +1885,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
@@ -1900,10 +1896,10 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
@@ -1911,7 +1907,7 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
@@ -1919,22 +1915,22 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
@@ -1954,10 +1950,10 @@
         <v>4.1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3046,15 +3042,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
@@ -3078,10 +3066,10 @@
         <v>2.2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -3113,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -3121,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -3137,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -3150,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
@@ -3158,7 +3146,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -3177,10 +3165,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -3188,10 +3176,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -3199,17 +3187,17 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -3217,10 +3205,10 @@
         <v>4.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -3228,21 +3216,10 @@
         <v>5.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
@@ -3270,10 +3247,10 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -3281,10 +3258,10 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
@@ -3292,10 +3269,10 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
